--- a/documents/14.开发进度计划/开发进度计划版本控制.xlsx
+++ b/documents/14.开发进度计划/开发进度计划版本控制.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>开发进度计划版本控制</t>
   </si>
@@ -59,6 +59,19 @@
   <si>
     <t>备注</t>
   </si>
+  <si>
+    <t>开发进度计划2.0</t>
+  </si>
+  <si>
+    <t>许书嘉</t>
+  </si>
+  <si>
+    <t>1.增加项目组工作时间
+2.根据文档提交时间修改文档组和数据库组部分计划内容</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
 </sst>
 </file>
 
@@ -66,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -104,6 +117,135 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,140 +260,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -268,43 +281,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +419,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,127 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,11 +492,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,9 +570,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,16 +583,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,149 +595,149 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -746,11 +759,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -819,7 +838,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1976,8 +1994,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -2042,60 +2060,70 @@
       </c>
     </row>
     <row r="5" ht="39.6" customHeight="1" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7">
+        <v>41001</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" ht="39.6" customHeight="1" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" ht="39.6" customHeight="1" spans="1:5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="39.6" customHeight="1" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" ht="39.6" customHeight="1" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" ht="39.6" customHeight="1" spans="1:5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" ht="39.6" customHeight="1" spans="1:5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" ht="39.6" customHeight="1" spans="1:5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/documents/14.开发进度计划/开发进度计划版本控制.xlsx
+++ b/documents/14.开发进度计划/开发进度计划版本控制.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="13545" windowHeight="4725"/>
+    <workbookView windowWidth="20385" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>开发进度计划版本控制</t>
   </si>
@@ -72,6 +72,17 @@
   <si>
     <t>无</t>
   </si>
+  <si>
+    <t>开发进度计划3.0</t>
+  </si>
+  <si>
+    <t>1.根据最终文档，代码开发结束时间修改部分细节时间
+2.根据项目发生的大变更，部分步骤时间上做出调整
+3.优化甘特图，解决原来图片被截断问题</t>
+  </si>
+  <si>
+    <t>最终版</t>
+  </si>
 </sst>
 </file>
 
@@ -79,9 +90,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -116,7 +127,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,16 +156,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +201,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -183,88 +271,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -281,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,8 +513,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,36 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -582,8 +593,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,10 +606,10 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,137 +618,137 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -773,6 +784,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1994,8 +2008,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -2077,11 +2091,21 @@
       </c>
     </row>
     <row r="6" ht="39.6" customHeight="1" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7">
+        <v>41005</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" ht="39.6" customHeight="1" spans="1:5">
       <c r="A7" s="8"/>
